--- a/CalculateFunding.Services.Datasets.UnitTests/TestItems/PE_and_Sports_Grant_Data_AsNull_v2.xlsx
+++ b/CalculateFunding.Services.Datasets.UnitTests/TestItems/PE_and_Sports_Grant_Data_AsNull_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\sinem\CalculateFunding-Backend\CalculateFunding.Services.Datasets.UnitTests\TestItems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895E5FAF-B974-4370-9A90-7F46BF85475C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A11B37A-0862-4F65-AC09-C50BEC7D0284}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Errors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PE and Sport Grant'!$A$1:$U$21544</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PE and Sport Grant'!$A$1:$T$21544</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
@@ -309,26 +309,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Description: Number of pupils (sole and dual run) in year group - Not Followed - age 5 to 10
- Required: No
- Type: Integer</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>UKPRN</t>
   </si>
@@ -388,9 +374,6 @@
   </si>
   <si>
     <t>Number of dual main of pupils in year group 6</t>
-  </si>
-  <si>
-    <t>Number of pupils (sole and dual run) in year group - Not Followed - age 5 to 10</t>
   </si>
   <si>
     <t>City of London</t>
@@ -852,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -868,10 +851,9 @@
     <col min="8" max="8" width="18.453125" customWidth="1"/>
     <col min="9" max="14" width="58.453125" customWidth="1"/>
     <col min="15" max="20" width="42.54296875" customWidth="1"/>
-    <col min="21" max="21" width="71.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,11 +914,8 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>10079319</v>
       </c>
@@ -944,19 +923,19 @@
         <v>100000</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2013614</v>
       </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -995,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>10016665</v>
       </c>
@@ -1006,20 +985,20 @@
         <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2021100</v>
       </c>
       <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -1056,11 +1035,8 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>10077053</v>
       </c>
@@ -1071,19 +1047,19 @@
         <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2021101</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1121,11 +1097,8 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>10078065</v>
       </c>
@@ -1136,19 +1109,19 @@
         <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2022019</v>
       </c>
       <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5">
         <v>40</v>
@@ -1186,11 +1159,8 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>10077183</v>
       </c>
@@ -1201,19 +1171,19 @@
         <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2022036</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>52</v>
@@ -1251,11 +1221,8 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>10073852</v>
       </c>
@@ -1266,19 +1233,19 @@
         <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2022065</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7">
         <v>36</v>
@@ -1316,11 +1283,8 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>10078064</v>
       </c>
@@ -1331,19 +1295,19 @@
         <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2022078</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8">
         <v>58</v>
@@ -1381,11 +1345,8 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>10078063</v>
       </c>
@@ -1396,19 +1357,19 @@
         <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2022095</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9">
         <v>31</v>
@@ -1446,11 +1407,8 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>10078062</v>
       </c>
@@ -1461,19 +1419,19 @@
         <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>2022184</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10">
         <v>25</v>
@@ -1511,11 +1469,8 @@
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>10078061</v>
       </c>
@@ -1526,19 +1481,19 @@
         <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>2022219</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11">
         <v>30</v>
@@ -1576,11 +1531,8 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>10075421</v>
       </c>
@@ -1591,19 +1543,19 @@
         <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2022290</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12">
         <v>30</v>
@@ -1641,11 +1593,8 @@
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>10069172</v>
       </c>
@@ -1656,19 +1605,19 @@
         <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2022436</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13">
         <v>51</v>
@@ -1706,11 +1655,8 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>10078060</v>
       </c>
@@ -1721,19 +1667,19 @@
         <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>2022438</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14">
         <v>47</v>
@@ -1771,11 +1717,8 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>10073851</v>
       </c>
@@ -1786,19 +1729,19 @@
         <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>2022475</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15">
         <v>57</v>
@@ -1836,11 +1779,8 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>10077182</v>
       </c>
@@ -1851,19 +1791,19 @@
         <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>2022502</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16">
         <v>51</v>
@@ -1901,11 +1841,8 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>10078059</v>
       </c>
@@ -1916,19 +1853,19 @@
         <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2022507</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17">
         <v>54</v>
@@ -1966,11 +1903,8 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>10077181</v>
       </c>
@@ -1981,19 +1915,19 @@
         <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2022603</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18">
         <v>59</v>
@@ -2031,11 +1965,8 @@
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>10078058</v>
       </c>
@@ -2046,19 +1977,19 @@
         <v>202</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2022775</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19">
         <v>58</v>
@@ -2096,11 +2027,8 @@
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>10079731</v>
       </c>
@@ -2111,19 +2039,19 @@
         <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>2022797</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20">
         <v>27</v>
@@ -2161,11 +2089,8 @@
       <c r="T20">
         <v>0</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>10078057</v>
       </c>
@@ -2176,19 +2101,19 @@
         <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>2022841</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21">
         <v>31</v>
@@ -2226,11 +2151,8 @@
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>10074742</v>
       </c>
@@ -2241,19 +2163,19 @@
         <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>2023323</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
         <v>23</v>
-      </c>
-      <c r="H22" t="s">
-        <v>24</v>
       </c>
       <c r="I22">
         <v>27</v>
@@ -2291,12 +2213,9 @@
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U21544" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T21544" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -2312,42 +2231,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2356,6 +2275,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE0AC5845F35354892F05EDE768EB9E5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d375a77fa2fd4b2207d063e1087e0e03">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ab119141-cd66-4087-86bb-8e659032e627" xmlns:ns4="7e3e27cc-3a1c-477d-aac6-02b314d79f5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9138eea122a2c6552d076ac3e67eb0bd" ns3:_="" ns4:_="">
     <xsd:import namespace="ab119141-cd66-4087-86bb-8e659032e627"/>
@@ -2564,22 +2498,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA5BD8A6-8524-4FB3-BADC-0E49138F02CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7e3e27cc-3a1c-477d-aac6-02b314d79f5e"/>
+    <ds:schemaRef ds:uri="ab119141-cd66-4087-86bb-8e659032e627"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{893FC4BE-952F-4B77-A17C-02E1E16AD86B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EFB9A9-C8EA-4DA5-9074-16F4DCC7EB28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2596,29 +2540,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{893FC4BE-952F-4B77-A17C-02E1E16AD86B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA5BD8A6-8524-4FB3-BADC-0E49138F02CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7e3e27cc-3a1c-477d-aac6-02b314d79f5e"/>
-    <ds:schemaRef ds:uri="ab119141-cd66-4087-86bb-8e659032e627"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>